--- a/Public/excel_template/供应商模板.xlsx
+++ b/Public/excel_template/供应商模板.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>alias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,13 @@
   </si>
   <si>
     <t>来点备注吧（字符串）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyId</t>
+  </si>
+  <si>
+    <t>供应商id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,73 +440,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>
